--- a/output/inference_results/test_sheets/batch_001/test_sheet (9).xlsx
+++ b/output/inference_results/test_sheets/batch_001/test_sheet (9).xlsx
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>葡萄糖（U_GLU）</t>
+          <t>葡萄糖</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -454,7 +454,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>尿胆原（URO）</t>
+          <t>尿胆原</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -467,7 +467,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>胆红素（BIL）</t>
+          <t>胆红素</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>酮体（KET）</t>
+          <t>酮体</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -497,24 +497,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>比重（SG）</t>
+          <t>比重</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.020</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.003--1.030</t>
+          <t>1.003-1.030</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>酸碱度（pH）</t>
+          <t>酸碱度</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.5--8</t>
+          <t>4.5-8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>蛋白质（PRO）</t>
+          <t>蛋白质</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>亚硝酸盐（NIT）</t>
+          <t>亚硝酸盐</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>白细胞（WBC_U）</t>
+          <t>白细胞</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>潜血（BLD）</t>
+          <t>潜血</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -583,7 +583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>红细胞（镜检）（RBC）</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -593,14 +593,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0--5</t>
+          <t>0-5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>白细胞（镜检）（WBC）</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -610,14 +610,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0--7</t>
+          <t>0-7</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>上皮细胞（EC</t>
+          <t>上皮细胞</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -627,14 +627,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0--5</t>
+          <t>0-5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>透明管型（HYAL）</t>
+          <t>透明管型</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -644,21 +644,21 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0--1</t>
+          <t>0-1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>细胞管型（CELL）</t>
+          <t>细胞管型</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>颗粒管型（GRAN）</t>
+          <t>颗粒管型</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -670,20 +670,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>其他管型（UNCC）</t>
+          <t>其他管型</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0--0</t>
+          <t>0-0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>尿酸盐结晶（URIC）</t>
+          <t>尿酸盐结晶</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -695,14 +695,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>其他结晶（UNCX）</t>
+          <t>其他结晶</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>草酸钙结晶（CAOX）</t>
+          <t>草酸钙结晶</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -712,14 +712,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0--0</t>
+          <t>0-0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>细菌（BACTHP）</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>真菌（C.vini）</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0--0</t>
+          <t>0-0</t>
         </is>
       </c>
     </row>

--- a/output/inference_results/test_sheets/batch_001/test_sheet (9).xlsx
+++ b/output/inference_results/test_sheets/batch_001/test_sheet (9).xlsx
@@ -654,6 +654,8 @@
           <t>细胞管型</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -666,6 +668,7 @@
           <t>。</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -686,11 +689,8 @@
           <t>尿酸盐结晶</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>。</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -698,6 +698,8 @@
           <t>其他结晶</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
